--- a/case3_Borate/_HCL_UBK_530.xlsx
+++ b/case3_Borate/_HCL_UBK_530.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO Papers\Regression_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D522A-4D81-4D47-A59A-1DE48751191B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE489FE-9E5E-40AF-845C-0CA89CB696E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1440" yWindow="5064" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/case3_Borate/_HCL_UBK_530.xlsx
+++ b/case3_Borate/_HCL_UBK_530.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE489FE-9E5E-40AF-845C-0CA89CB696E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE01D9-D105-4470-9431-20799B638B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>blue</t>
   </si>
   <si>
-    <t>Borate</t>
-  </si>
-  <si>
     <t>time duration between fractions in min</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>F33</t>
+  </si>
+  <si>
+    <t>HCl</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:U75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,7 +2140,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>47</v>
@@ -2319,13 +2319,13 @@
         <v>9.3969999999999996E-5</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="8">
         <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2355,14 +2355,14 @@
         <v>1.3519999999999999E-5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1">
         <f>J4/60</f>
         <v>0.6</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2980,7 +2980,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>26</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1">
         <v>27</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1">
         <v>28</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="4">
         <v>29</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>30</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>31</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1">
         <v>32</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4">
         <v>33</v>
